--- a/CASUAL/LA GSO/VILLANUEVA, ISMAEL.xlsx
+++ b/CASUAL/LA GSO/VILLANUEVA, ISMAEL.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="87">
   <si>
     <t>PERIOD</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>5/5,19/2022</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>1/11,12/2024</t>
   </si>
 </sst>
 </file>
@@ -693,14 +699,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -710,9 +719,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1243,7 +1249,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1286,7 +1292,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1356,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1410,7 +1416,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1476,7 +1482,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1539,7 +1545,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1637,7 +1643,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1696,7 +1702,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1761,7 +1767,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1804,7 +1810,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1885,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2065,7 +2071,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2131,7 +2137,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2195,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2255,7 +2261,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2317,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2386,7 +2392,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2429,7 +2435,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,7 +2501,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,7 +2557,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2647,7 +2653,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K99" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K100" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -3024,12 +3030,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K99"/>
+  <dimension ref="A2:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A59" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A74" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="K65" sqref="K65"/>
+      <selection pane="bottomLeft" activeCell="K90" sqref="K90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3059,14 +3065,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3078,14 +3084,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3099,16 +3105,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3141,18 +3147,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3199,7 +3205,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>49.063000000000002</v>
+        <v>51.563000000000002</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3209,7 +3215,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>86.5</v>
+        <v>87</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4853,13 +4859,15 @@
         <v>45231</v>
       </c>
       <c r="B87" s="21"/>
-      <c r="C87" s="14"/>
+      <c r="C87" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="41"/>
       <c r="E87" s="10"/>
       <c r="F87" s="21"/>
-      <c r="G87" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="41"/>
       <c r="I87" s="10"/>
@@ -4871,13 +4879,15 @@
         <v>45261</v>
       </c>
       <c r="B88" s="21"/>
-      <c r="C88" s="14"/>
+      <c r="C88" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="41"/>
       <c r="E88" s="10"/>
       <c r="F88" s="21"/>
-      <c r="G88" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="41"/>
       <c r="I88" s="10"/>
@@ -4885,7 +4895,9 @@
       <c r="K88" s="21"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="42"/>
+      <c r="A89" s="50" t="s">
+        <v>85</v>
+      </c>
       <c r="B89" s="21"/>
       <c r="C89" s="14"/>
       <c r="D89" s="41"/>
@@ -4901,8 +4913,12 @@
       <c r="K89" s="21"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="42"/>
-      <c r="B90" s="21"/>
+      <c r="A90" s="42">
+        <v>45292</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="C90" s="14"/>
       <c r="D90" s="41"/>
       <c r="E90" s="10"/>
@@ -4911,13 +4927,19 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H90" s="41"/>
+      <c r="H90" s="41">
+        <v>2</v>
+      </c>
       <c r="I90" s="10"/>
       <c r="J90" s="12"/>
-      <c r="K90" s="21"/>
+      <c r="K90" s="21" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="42"/>
+      <c r="A91" s="42">
+        <v>45323</v>
+      </c>
       <c r="B91" s="21"/>
       <c r="C91" s="14"/>
       <c r="D91" s="41"/>
@@ -4933,7 +4955,9 @@
       <c r="K91" s="21"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="42"/>
+      <c r="A92" s="42">
+        <v>45352</v>
+      </c>
       <c r="B92" s="21"/>
       <c r="C92" s="14"/>
       <c r="D92" s="41"/>
@@ -4949,7 +4973,9 @@
       <c r="K92" s="21"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="42"/>
+      <c r="A93" s="42">
+        <v>45383</v>
+      </c>
       <c r="B93" s="21"/>
       <c r="C93" s="14"/>
       <c r="D93" s="41"/>
@@ -4965,7 +4991,9 @@
       <c r="K93" s="21"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="42"/>
+      <c r="A94" s="42">
+        <v>45413</v>
+      </c>
       <c r="B94" s="21"/>
       <c r="C94" s="14"/>
       <c r="D94" s="41"/>
@@ -4981,7 +5009,9 @@
       <c r="K94" s="21"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="42"/>
+      <c r="A95" s="42">
+        <v>45444</v>
+      </c>
       <c r="B95" s="21"/>
       <c r="C95" s="14"/>
       <c r="D95" s="41"/>
@@ -4997,7 +5027,9 @@
       <c r="K95" s="21"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="42"/>
+      <c r="A96" s="42">
+        <v>45474</v>
+      </c>
       <c r="B96" s="21"/>
       <c r="C96" s="14"/>
       <c r="D96" s="41"/>
@@ -5013,7 +5045,9 @@
       <c r="K96" s="21"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="42"/>
+      <c r="A97" s="42">
+        <v>45505</v>
+      </c>
       <c r="B97" s="21"/>
       <c r="C97" s="14"/>
       <c r="D97" s="41"/>
@@ -5029,7 +5063,9 @@
       <c r="K97" s="21"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="42"/>
+      <c r="A98" s="42">
+        <v>45536</v>
+      </c>
       <c r="B98" s="21"/>
       <c r="C98" s="14"/>
       <c r="D98" s="41"/>
@@ -5045,34 +5081,50 @@
       <c r="K98" s="21"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="43"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="45"/>
+      <c r="A99" s="42"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="41"/>
       <c r="E99" s="10"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="44" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H99" s="45"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H99" s="41"/>
       <c r="I99" s="10"/>
-      <c r="J99" s="13"/>
-      <c r="K99" s="16"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="21"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="43"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="44" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H100" s="45"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5140,14 +5192,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -5159,14 +5211,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -5180,16 +5232,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -5222,18 +5274,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
